--- a/data/trans_bre/P5_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>4,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>16,54%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,91%</t>
+          <t>24,67%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 8,29</t>
+          <t>-2,79; 11,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 8,03</t>
+          <t>-3,76; 10,48</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-18,56; 73,8</t>
+          <t>-16,34; 140,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 71,42</t>
+          <t>-22,97; 122,76</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>-4,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,13</t>
+          <t>-5,68</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>-12,61%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-20,13%</t>
+          <t>-15,76%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,43; 4,17</t>
+          <t>-15,82; 7,18</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,67; 1,35</t>
+          <t>-17,33; 5,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 15,37</t>
+          <t>-37,45; 25,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 4,35</t>
+          <t>-41,66; 19,12</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,12</t>
+          <t>17,71</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>17,58</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,8%</t>
+          <t>51,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>51,54%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,89; 30,11</t>
+          <t>-6,64; 47,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 30,66</t>
+          <t>-7,1; 46,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,38; 139,28</t>
+          <t>-15,76; 289,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-12,6; 153,16</t>
+          <t>-16,11; 309,33</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,55%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,79%</t>
+          <t>3,17%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 5,09</t>
+          <t>-5,01; 8,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 4,33</t>
+          <t>-6,19; 7,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 23,76</t>
+          <t>-17,97; 38,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,62; 19,99</t>
+          <t>-21,59; 34,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P5_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P5_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>4,49</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>35,74%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>24,67%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.488345304706892</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.58129263465289</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.3574200875886391</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.1870901127851474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,79; 11,81</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,76; 10,48</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-16,34; 140,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-22,97; 122,76</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.791136676300209</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-5.03297164013045</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.1633602274604205</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.2818478285360216</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.80522493047598</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.40059765915382</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.400726985959073</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.154357156096781</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-4,44</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-5,68</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-12,61%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-15,76%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-15,82; 7,18</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-17,33; 5,92</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-37,45; 25,17</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-41,66; 19,12</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-4.438420571062735</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.830760561007375</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1260522546541299</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.1594204337092671</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>17,71</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>17,58</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>51,41%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>51,54%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-15.82401901133814</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-18.12344128237937</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3744809187165576</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4208474584996905</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-6,64; 47,07</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,1; 46,96</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,76; 289,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-16,11; 309,33</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>7.178809288707237</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.024824630438938</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.2517053535587014</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.2089787226496191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,125 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,77</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>3,17%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>17.71370735866978</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>19.45737110600773</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.5140532064253661</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.5921208140657208</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-5,01; 8,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-6,19; 7,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-17,97; 38,15</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-21,59; 34,62</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.640471364282885</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.001984773694733</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.1575592244431076</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1372122116151069</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>47.0672847076976</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>49.42797685447775</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>2.899741905571913</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.49205702284275</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.76819503839998</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.4524911784978991</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.07319676997120156</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01789687018149651</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.01081837944665</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.004661686804865</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.1796706987010742</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2274366871610434</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>8.053737543161759</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>6.985888501801917</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3815236357790879</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3312981329624573</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -817,13 +842,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
